--- a/results/I3_N5_M3_T30_C150_DepLowerLeft_s2_P1_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepLowerLeft_s2_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>615.0072073661878</v>
+        <v>1793.205371022768</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01100015640258789</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.59143808817635</v>
+        <v>27.21363927694955</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.19792368279113</v>
+        <v>11.61690297149432</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.97369296080846</v>
+        <v>11.6086347173128</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>364.5799999999941</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.06</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -631,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17.93504247831764</v>
+        <v>17.71826622296189</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.27021167277385</v>
+        <v>18.38309702850568</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.99312545677591</v>
+        <v>3.132299474826759</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>6.125424931602669</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.97645744572761</v>
+        <v>19.67685125555192</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26.12542493160267</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1101,15 +1101,71 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1212,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>192.0399999999998</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -1223,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>177.55</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
@@ -1234,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>178.1100000000002</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
@@ -1245,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>179.6099999999998</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -1256,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>185.0799999999999</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
@@ -1267,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>151.0650000000013</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13">
@@ -1278,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.15</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14">
@@ -1289,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>141.6400000000013</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
@@ -1300,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>144.1900000000013</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16">
@@ -1311,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>145.6100000000013</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
@@ -1322,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.3399999999997</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1333,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>159.2049999999997</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1344,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4299999999997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1355,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1366,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.9950000000003</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1377,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -1388,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1399,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -1410,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -1421,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -1432,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62000000000073</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
@@ -1443,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.47500000000073</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
@@ -1454,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.92500000000073</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
@@ -1465,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.65500000000073</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
@@ -1476,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.76000000000073</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32">
@@ -1487,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>192.0399999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1498,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>177.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1509,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.1099999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1520,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>179.6099999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1531,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>185.0799999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1597,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>147.3399999999997</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43">
@@ -1608,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>159.2049999999997</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44">
@@ -1619,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>140.4299999999997</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45">
@@ -1630,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>157.7</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46">
@@ -1641,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>152.9950000000003</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>42.0399999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1699,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1710,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>28.10999999999976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1721,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>29.60999999999919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1732,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>35.07999999999925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1798,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -1809,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>9.204999999999659</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -1820,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
@@ -1831,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.7</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -1842,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>2.995000000000005</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1889,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1900,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1911,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1922,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1933,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1944,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1955,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1966,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1977,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1988,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1999,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -2010,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -2021,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2032,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -2043,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2054,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -2065,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -2076,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -2098,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -2109,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2120,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -2131,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2142,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2153,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2167,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2194,7 +2250,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2205,7 +2261,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2216,7 +2272,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2227,7 +2283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2238,7 +2294,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2249,7 +2305,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2260,7 +2316,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2271,10 +2327,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2282,12 +2338,23 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
